--- a/upgrade_device_list.xlsx
+++ b/upgrade_device_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
   <si>
     <t xml:space="preserve">device_name_in_vd</t>
   </si>
@@ -52,34 +52,40 @@
     <t xml:space="preserve">package_info</t>
   </si>
   <si>
+    <t xml:space="preserve">ABC-cpe27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">versa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.12.64.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">versa123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">felxvnf-16.1R1S3-sathish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deb-package-upgrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">versa-flexvnf-20171107-024119-e51d9e9-16.1R1-wsm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC-cpe28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.12.64.116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC-cpe29</t>
+  </si>
+  <si>
     <t xml:space="preserve">ABC-cpe26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">versa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.12.64.116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">versa123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">felxvnf-16.1R1S3-sathish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deb-package-upgrade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">versa-flexvnf-20171107-024119-e51d9e9-16.1R1-wsm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABC-cpe27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.12.64.117</t>
   </si>
 </sst>
 </file>
@@ -177,22 +183,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="56.8785425101215"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -220,10 +225,10 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -232,7 +237,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -252,10 +257,10 @@
       <c r="H2" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="I2" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="J2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="0" t="s">
         <v>17</v>
       </c>
     </row>
@@ -264,7 +269,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -284,10 +289,106 @@
       <c r="H3" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="I3" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="J3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="J4" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>17</v>
       </c>
     </row>
